--- a/Excel_report/01-12-2022_31-12-2022.xlsx
+++ b/Excel_report/01-12-2022_31-12-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Techzones\Documents\Workplace\IT\Software Technology\final_longchau\Excel_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{152E04AC-8AE5-40DF-ACFA-9FB0782774C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE04246C-1C22-4BC4-BE99-842FD176F245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{E9A4A721-0774-4AAE-8AEB-C6E156535CD0}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{002A3F97-883F-49C3-917D-407EB513DDED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,9 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF4AD3-6BE7-4AA2-BA26-E55E93773B7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66DBF8C-0F42-458B-9519-19AC17FB0A7E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -599,16 +613,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
     </row>
